--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,53 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shizhenyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\detr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4974D7CA-F100-0448-8306-01FFD8CD3A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA014DF9-EF36-4B00-94D5-AD8F94027518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1760" windowWidth="28240" windowHeight="16120" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
+    <workbookView xWindow="2700" yWindow="1755" windowWidth="28245" windowHeight="16125" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>预测State训练误差和测试误差的对比，训练误差小于测试误差说明存在过拟合，并且误差75左右，state预测的准确率比较低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测Class训练误差和测试误差的对比，测试误差小于训练误差说明模型的泛化能力是可以的，误差在25左右，class预测是比较准确的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>训练Class和State的loss，Class的loss要明显小于State的loss，State的loss没有明显的收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>训练Class和State的error，Class的error要明显小于State的error，State的error也没有明显的收敛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测State训练误差和测试误差的对比，训练误差小于测试误差说明存在过拟合，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且误差75左右，state预测的准确率比较低</t>
+  </si>
+  <si>
+    <t>只训练线性分类层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体finetune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测state训练误差和测试误差的对比，误差都有下降趋势，说明finetune比只训练线性层更有效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终收敛的测试误差大约78.7，训练误差大约73.7，存在一定的过拟合，但准确率还是很低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测Class训练误差和测试误差的对比，测试误差小于训练误差说明模型的泛化能力是可以的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差在25左右，class预测是比较准确的</t>
+  </si>
+  <si>
+    <t>预测Class训练误差和测试误差的对比，误差都有明显下降，训练是有效果的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终收敛的测试误差大约20，训练误差大约10，存在一定的过拟合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练Class和State的loss对比，class的loss下降比较明显，state的loss下降不明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终收敛class的loss大约0.21，state的loss大约1.1，finetune的class loss要比只训练分类层的loss小，但state loss差不多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练Class和State的error对比，class error明显下降，state error下降不明显，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终收敛class error大约10，state error大约74</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +114,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -102,11 +148,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -132,14 +181,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -176,14 +225,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -220,14 +269,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -296,6 +345,206 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="7772400" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>535429</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C021BBE-2ED6-4A46-BC30-EBFD9BBAD15E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7944970" y="1"/>
+          <a:ext cx="7718400" cy="3859200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425822</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>580252</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>82818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CD51A8-5778-401D-84D8-9B19942E5C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7989793" y="9670677"/>
+          <a:ext cx="7718400" cy="3859200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>569048</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>60407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18469EC7-7254-47B6-8918-0BE0F2DDC1F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7978589" y="4840942"/>
+          <a:ext cx="7718400" cy="3859200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>714724</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>60406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9722E336-D74A-4266-93F3-0B755E1BD2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124265" y="14455588"/>
+          <a:ext cx="7718400" cy="3859200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -604,37 +853,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD8D57-4A12-D142-9D50-A01F424D7E96}">
-  <dimension ref="A21:A87"/>
+  <dimension ref="A21:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="21" spans="1:1" ht="21">
+    <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="21">
-      <c r="A43" s="1" t="s">
+      <c r="K68" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="K69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="21">
-      <c r="A65" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="21">
-      <c r="A87" s="1" t="s">
-        <v>3</v>
+      <c r="K91" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="K92" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\detr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shizhenyu/Documents/detr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA014DF9-EF36-4B00-94D5-AD8F94027518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A72CE-884B-084F-B4D4-4FE36B206103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1755" windowWidth="28245" windowHeight="16125" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="预测Class和State的训练对比" sheetId="1" r:id="rId1"/>
+    <sheet name="State预测eval分析" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>训练Class和State的loss，Class的loss要明显小于State的loss，State的loss没有明显的收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +87,110 @@
   </si>
   <si>
     <t>最终收敛class error大约10，state error大约74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测Class和State的训练对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State预测eval分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">state </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5-1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR_small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR_medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR_large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class的AP50可以达到50.4，去除score小于0.5的对象，AP50略有下降48.1，考虑采用其他后处理方法（先了解detr中用的什么后处理方法把100个目标缩减到适合个数的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否用到了nms等方法）。State的AP50达到了28.4是比较低的，去除score小于0.5的对象后，AP50提高到38.5鉴于AP的定义这样做是否合适需要探讨一下，再有就是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要分析一下对于不同state的AP，None，Non-intrusion，intrusion都要看一下，因为这里AP是对所有类别的平均，这里state的预测可能会存在类别不均衡的情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedestrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rider</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +230,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +270,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,13 +306,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -211,8 +336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13627100"/>
-          <a:ext cx="7772400" cy="3886200"/>
+          <a:off x="0" y="15205635"/>
+          <a:ext cx="7873253" cy="3999754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -225,13 +350,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -255,8 +380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9144000"/>
-          <a:ext cx="7772400" cy="3886200"/>
+          <a:off x="0" y="10266082"/>
+          <a:ext cx="7873253" cy="3999752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -269,13 +394,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -299,8 +424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4559300"/>
-          <a:ext cx="7772400" cy="3886200"/>
+          <a:off x="0" y="5224929"/>
+          <a:ext cx="7873253" cy="3999754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -313,14 +438,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -343,8 +468,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7772400" cy="3886200"/>
+          <a:off x="0" y="373529"/>
+          <a:ext cx="7873253" cy="3999753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -357,14 +482,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>535429</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>26789</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -393,8 +518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7944970" y="1"/>
-          <a:ext cx="7718400" cy="3859200"/>
+          <a:off x="7911352" y="373530"/>
+          <a:ext cx="7684783" cy="4001141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -407,13 +532,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>425822</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>580252</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>82818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -443,8 +568,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7989793" y="9670677"/>
-          <a:ext cx="7718400" cy="3859200"/>
+          <a:off x="7956175" y="10245912"/>
+          <a:ext cx="7684783" cy="4001141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -457,13 +582,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>569048</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>60407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -493,8 +618,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7978589" y="4840942"/>
-          <a:ext cx="7718400" cy="3859200"/>
+          <a:off x="7944971" y="5233147"/>
+          <a:ext cx="7684783" cy="4001142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -507,13 +632,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>714724</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>60406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -543,8 +668,313 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8124265" y="14455588"/>
-          <a:ext cx="7718400" cy="3859200"/>
+          <a:off x="8090647" y="15213852"/>
+          <a:ext cx="7684783" cy="4001142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>65528</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>36072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>675128</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>201172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D841B9-76A4-5B4E-8D40-A89EA8CCA495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65528" y="2191870"/>
+          <a:ext cx="7183718" cy="3003924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676088</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BF1364-7090-724E-B16E-4A0F54CA5E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="74706" y="5421513"/>
+          <a:ext cx="7175500" cy="3022600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>469259</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0200CA-AB3B-7140-BC2D-C785376DDE1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7395882" y="5421512"/>
+          <a:ext cx="7150100" cy="3022600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>507359</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8992A87-5222-5946-8429-8CB1B1DB1EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7395882" y="2198486"/>
+          <a:ext cx="7188200" cy="3022600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>660399</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>252492</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA12B7A6-9463-D44F-A8C3-D5E408990452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14795499" y="2222500"/>
+          <a:ext cx="8672593" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>594500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>192854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E5D8DB-9670-CF46-AEB3-01D29E3A137B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14729600" y="5433200"/>
+          <a:ext cx="8790800" cy="3827454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,101 +1283,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD8D57-4A12-D142-9D50-A01F424D7E96}">
-  <dimension ref="A21:K92"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O97" sqref="O97"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="26">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="21">
+      <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:11" ht="21">
+      <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:11" ht="21">
+      <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:11" ht="21">
+      <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:11" ht="21">
+      <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:11" ht="21">
+      <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:11" ht="21">
+      <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:11" ht="21">
+      <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="K69" s="1" t="s">
+    <row r="70" spans="1:11" ht="21">
+      <c r="K70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:11" ht="21">
+      <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:11" ht="21">
+      <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="K92" s="1" t="s">
+    <row r="93" spans="1:11" ht="21">
+      <c r="K93" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -957,4 +1392,324 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953D5783-007D-0141-9408-F706BB63B6E1}">
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="14" max="14" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="26">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>0.249</v>
+      </c>
+      <c r="D3">
+        <v>0.504</v>
+      </c>
+      <c r="E3">
+        <v>0.214</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
+      </c>
+      <c r="G3">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.502</v>
+      </c>
+      <c r="I3">
+        <v>0.123</v>
+      </c>
+      <c r="J3">
+        <v>0.307</v>
+      </c>
+      <c r="K3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="N3">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.186</v>
+      </c>
+      <c r="H4">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="L4">
+        <v>0.09</v>
+      </c>
+      <c r="M4">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="N4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.106</v>
+      </c>
+      <c r="F5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.123</v>
+      </c>
+      <c r="J5">
+        <v>0.307</v>
+      </c>
+      <c r="K5">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="N5">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="T5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.09</v>
+      </c>
+      <c r="M6">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="B9:N9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shizhenyu/Documents/detr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\detr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A72CE-884B-084F-B4D4-4FE36B206103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707ED0D4-7B57-47D3-808D-D826054D766E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
   <sheets>
     <sheet name="预测Class和State的训练对比" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>训练Class和State的loss，Class的loss要明显小于State的loss，State的loss没有明显的收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,22 @@
   </si>
   <si>
     <t>rider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non Intrusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intrusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state预测中，None类别全为零，Non Intrusion的AP50为0.396，Intrusion的AP50为0.172，Non Intrusion要远大于Intrusion，存在一定的由于类别均衡导致入侵类别检测准确率低的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state预测和class预测的回归率是相同的，说明准确率存在较大差异。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -687,14 +706,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>65528</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>36072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>675128</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>201172</xdr:rowOff>
+      <xdr:colOff>465578</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -737,13 +756,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>74706</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>21345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676088</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>466538</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>2348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -787,13 +806,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>21344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>469259</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>393059</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>2347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -837,13 +856,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>42688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>507359</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>431159</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>23691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -886,15 +905,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>252492</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>404892</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -923,8 +942,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14795499" y="2222500"/>
-          <a:ext cx="8672593" cy="3009900"/>
+          <a:off x="15224124" y="2568575"/>
+          <a:ext cx="8812293" cy="2962275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,13 +956,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>594500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>23000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>192854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1289,14 +1308,14 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21">
+    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21">
+    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1312,7 +1331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21">
+    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="21">
+    <row r="45" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1328,7 +1347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="21">
+    <row r="46" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="21">
+    <row r="47" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="21">
+    <row r="68" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21">
+    <row r="69" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,12 +1379,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="21">
+    <row r="70" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="K70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="21">
+    <row r="91" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="21">
+    <row r="92" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="21">
+    <row r="93" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="K93" s="1" t="s">
         <v>15</v>
       </c>
@@ -1396,23 +1415,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953D5783-007D-0141-9408-F706BB63B6E1}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="AE39" sqref="AE39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26">
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1453,7 +1475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1497,7 +1519,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1541,175 +1563,366 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.54</v>
+      </c>
+      <c r="E5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.187</v>
+      </c>
+      <c r="H5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="I5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>0.24</v>
+      </c>
+      <c r="D6">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.217</v>
+      </c>
+      <c r="F6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.495</v>
+      </c>
+      <c r="I6">
+        <v>0.185</v>
+      </c>
+      <c r="J6">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="L6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>0.106</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>0.46600000000000003</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>0.123</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>0.307</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>0.41399999999999998</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>0.40699999999999997</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <v>0.63300000000000001</v>
       </c>
-      <c r="T5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="V5">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>0.46600000000000003</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>0.28199999999999997</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>0.35099999999999998</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>0.09</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>0.33500000000000002</v>
       </c>
-      <c r="N6">
+      <c r="N8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T6" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.182</v>
+      </c>
+      <c r="D9">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>0.125</v>
+      </c>
+      <c r="H9">
+        <v>0.53</v>
+      </c>
+      <c r="I9">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="L9">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F10">
+        <v>2E-3</v>
+      </c>
+      <c r="G10">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.185</v>
+      </c>
+      <c r="J10">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="K10">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="L10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="B8" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="B9" s="6" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B8:N8"/>
-    <mergeCell ref="B9:N9"/>
+  <mergeCells count="1">
+    <mergeCell ref="B15:N15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\detr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707ED0D4-7B57-47D3-808D-D826054D766E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A458CD26-3E3A-4EDF-AC78-3B31E8881E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
   <sheets>
     <sheet name="预测Class和State的训练对比" sheetId="1" r:id="rId1"/>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD8D57-4A12-D142-9D50-A01F424D7E96}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953D5783-007D-0141-9408-F706BB63B6E1}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\detr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A458CD26-3E3A-4EDF-AC78-3B31E8881E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A16871-C3A9-40AE-9EB9-69BCBEEF623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
   <sheets>
     <sheet name="预测Class和State的训练对比" sheetId="1" r:id="rId1"/>
     <sheet name="State预测eval分析" sheetId="2" r:id="rId2"/>
+    <sheet name="模型训练方式对比" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>训练Class和State的loss，Class的loss要明显小于State的loss，State的loss没有明显的收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +216,98 @@
   </si>
   <si>
     <t>state预测和class预测的回归率是相同的，说明准确率存在较大差异。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finetune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_finetune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_feature_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_feature_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_finetune_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_checkpoint_1.pth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,6 +355,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +407,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1304,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD8D57-4A12-D142-9D50-A01F424D7E96}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -1417,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953D5783-007D-0141-9408-F706BB63B6E1}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1895,21 +2013,21 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1925,4 +2043,241 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA5840C-E570-41D3-A054-976C8C11FDEB}">
+  <dimension ref="A2:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+    </row>
+    <row r="23" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\detr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A16871-C3A9-40AE-9EB9-69BCBEEF623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7355D6-F9CE-4777-8273-52426A924A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base_checkpoint_1.pth</t>
+    <t>detr-r50-e632da11.pth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2050,7 +2050,7 @@
   <dimension ref="A2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\detr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shizhenyu/Documents/detr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7355D6-F9CE-4777-8273-52426A924A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BEAE64-6803-BC40-B1A3-B191B453D389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
   <sheets>
     <sheet name="预测Class和State的训练对比" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>训练Class和State的loss，Class的loss要明显小于State的loss，State的loss没有明显的收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,10 @@
   </si>
   <si>
     <t>detr-r50-e632da11.pth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_finetune_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1426,14 +1430,14 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="26">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="21">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="21">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="21">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="21">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="21">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="21">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="21">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="21">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,12 +1501,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="21">
       <c r="K70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="21">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="21">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="21">
       <c r="K93" s="1" t="s">
         <v>15</v>
       </c>
@@ -1539,20 +1543,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="14.25" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="26">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1901,7 +1905,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1945,7 +1949,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1964,7 +1968,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1979,7 +1983,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1994,7 +1998,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2012,7 +2016,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
@@ -2029,7 +2033,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2047,23 +2051,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA5840C-E570-41D3-A054-976C8C11FDEB}">
-  <dimension ref="A2:H30"/>
+  <dimension ref="A2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21">
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A4" s="9" t="s">
         <v>58</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
@@ -2151,12 +2155,12 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>51</v>
@@ -2167,39 +2171,40 @@
       <c r="E6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="F6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A8" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8" t="b">
         <v>1</v>
@@ -2211,70 +2216,90 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="21">
+      <c r="A9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A28" s="9"/>
     </row>
-    <row r="29" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" s="8" customFormat="1" ht="21">
       <c r="A29" s="9"/>
     </row>
-    <row r="30" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="8" customFormat="1" ht="21">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:1" s="8" customFormat="1" ht="21"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shizhenyu/Documents/detr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\detr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BEAE64-6803-BC40-B1A3-B191B453D389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2DA359-5794-472E-83CD-A022EE24CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
   <sheets>
     <sheet name="预测Class和State的训练对比" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>训练Class和State的loss，Class的loss要明显小于State的loss，State的loss没有明显的收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,14 @@
   </si>
   <si>
     <t>results_pretain_state_finetune_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_feature_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1116,6 +1124,55 @@
         <a:xfrm>
           <a:off x="14729600" y="5433200"/>
           <a:ext cx="8790800" cy="3827454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE2C91F-779B-4215-939F-7A31C3D10593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12330546" y="987136"/>
+          <a:ext cx="8728363" cy="4329546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1430,14 +1487,14 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21">
+    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21">
+    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21">
+    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1461,7 +1518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="21">
+    <row r="45" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="21">
+    <row r="46" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +1534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="21">
+    <row r="47" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +1542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="21">
+    <row r="68" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21">
+    <row r="69" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,12 +1558,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="21">
+    <row r="70" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="K70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="21">
+    <row r="91" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="21">
+    <row r="92" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1522,7 +1579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="21">
+    <row r="93" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="K93" s="1" t="s">
         <v>15</v>
       </c>
@@ -1543,20 +1600,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26">
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1597,7 +1654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1641,7 +1698,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1685,7 +1742,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1729,7 +1786,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1773,7 +1830,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1817,7 +1874,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1861,7 +1918,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1905,7 +1962,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1949,7 +2006,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1968,7 +2025,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1983,7 +2040,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1998,7 +2055,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2016,7 +2073,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
@@ -2033,7 +2090,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2053,21 +2110,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA5840C-E570-41D3-A054-976C8C11FDEB}">
   <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="111.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="21">
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
@@ -2090,7 +2147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21">
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -2114,9 +2171,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
@@ -2128,13 +2185,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
@@ -2153,9 +2210,11 @@
       <c r="F5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="21">
+      <c r="H5" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
@@ -2174,11 +2233,10 @@
       <c r="F6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="21">
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>49</v>
@@ -2190,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>60</v>
       </c>
@@ -2216,7 +2274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>63</v>
       </c>
@@ -2236,73 +2294,94 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="21">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="21">
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="17" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="18" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="19" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="20" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="21" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="22" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="23" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="24" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="25" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="26" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="27" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="28" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
     </row>
-    <row r="29" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="29" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
     </row>
-    <row r="30" spans="1:1" s="8" customFormat="1" ht="21">
+    <row r="30" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
     </row>
-    <row r="31" spans="1:1" s="8" customFormat="1" ht="21"/>
+    <row r="31" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\detr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shizhenyu/Documents/detr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2DA359-5794-472E-83CD-A022EE24CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85B40D-CF92-3646-948A-1A3175D9EE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
   <sheets>
     <sheet name="预测Class和State的训练对比" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>训练Class和State的loss，Class的loss要明显小于State的loss，State的loss没有明显的收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,22 @@
   </si>
   <si>
     <t>results_pretain_state_feature_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_queries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_feature_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_finetune_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_finetune_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1139,13 +1155,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1173,6 +1189,256 @@
         <a:xfrm>
           <a:off x="12330546" y="987136"/>
           <a:ext cx="8728363" cy="4329546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2196352</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510FB082-C3B5-334D-A108-61A2D7DA2C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12356352" y="7410824"/>
+          <a:ext cx="8486589" cy="3242235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2199267</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB73D42-37EA-814A-A4CF-F2E41E3ED4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14916200" y="10905068"/>
+          <a:ext cx="8367133" cy="5079999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2199267</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8363414</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C144211F-EE6B-EC48-AC54-FEAB7BC9C5D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12343779" y="727927"/>
+          <a:ext cx="8363415" cy="5080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F875330F-AF97-D44F-B804-5304C12AAF78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14918267" y="21877868"/>
+          <a:ext cx="8365066" cy="5080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CAEF4B-B864-2349-BDB4-96A713E782C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14918266" y="15985066"/>
+          <a:ext cx="8365067" cy="5080001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,18 +1749,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD8D57-4A12-D142-9D50-A01F424D7E96}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="26">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="21">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="21">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="21">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="21">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1526,7 +1792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="21">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="21">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +1808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="21">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="21">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,12 +1824,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="21">
       <c r="K70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="21">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -1571,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="21">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="21">
       <c r="K93" s="1" t="s">
         <v>15</v>
       </c>
@@ -1596,24 +1862,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953D5783-007D-0141-9408-F706BB63B6E1}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="J13" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="26">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1654,7 +1920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1698,7 +1964,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1742,7 +2008,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1786,7 +2052,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1830,7 +2096,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1874,7 +2140,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1918,7 +2184,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1962,7 +2228,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2006,7 +2272,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2025,7 +2291,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -2040,7 +2306,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -2055,7 +2321,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2073,7 +2339,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
@@ -2090,7 +2356,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2108,276 +2374,395 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA5840C-E570-41D3-A054-976C8C11FDEB}">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="111.375" customWidth="1"/>
+    <col min="1" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="109.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21">
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="21">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="7" t="b">
+      <c r="E3" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9">
+        <v>100</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="E4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9">
+        <v>100</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="8" t="b">
+      <c r="E5" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9">
+        <v>100</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="8" t="b">
+      <c r="E6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="I6" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="9">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="9">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="21">
+      <c r="A9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="8" t="b">
+      <c r="E9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="21">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="8" t="b">
+      <c r="E10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="21">
+      <c r="A11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="8" t="b">
+      <c r="E11" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="12" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B12" s="9">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="8" t="b">
+      <c r="E12" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="I12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="9">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
       <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="21">
       <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="21">
       <c r="A16" s="9"/>
-    </row>
-    <row r="17" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A25" s="9"/>
-    </row>
-    <row r="26" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A27" s="9"/>
-    </row>
-    <row r="28" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A28" s="9"/>
-    </row>
-    <row r="29" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A29" s="9"/>
-    </row>
-    <row r="30" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" s="8" customFormat="1" ht="21">
       <c r="A30" s="9"/>
-    </row>
-    <row r="31" spans="1:1" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2" s="8" customFormat="1" ht="21">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" s="8" customFormat="1" ht="21">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" s="8" customFormat="1" ht="21"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shizhenyu/Documents/detr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\detr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85B40D-CF92-3646-948A-1A3175D9EE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5D159-9F22-4826-85DD-27DF67C5F88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
   <sheets>
     <sheet name="预测Class和State的训练对比" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>训练Class和State的loss，Class的loss要明显小于State的loss，State的loss没有明显的收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>results_pretain_state_feature_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +332,14 @@
   </si>
   <si>
     <t>results_pretain_state_finetune_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best for state prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best for class prediction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1439,6 +1443,50 @@
         <a:xfrm>
           <a:off x="14918266" y="15985066"/>
           <a:ext cx="8365067" cy="5080001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD44E66A-26C9-43F9-B7D9-F8B8FED7CF76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14876318" y="21024273"/>
+          <a:ext cx="8347364" cy="5074227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1753,14 +1801,14 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21">
+    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1768,7 +1816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21">
+    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1776,7 +1824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21">
+    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1784,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="21">
+    <row r="45" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1792,7 +1840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="21">
+    <row r="46" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1800,7 +1848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="21">
+    <row r="47" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1808,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="21">
+    <row r="68" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21">
+    <row r="69" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -1824,12 +1872,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="21">
+    <row r="70" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="K70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="21">
+    <row r="91" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="21">
+    <row r="92" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="21">
+    <row r="93" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="K93" s="1" t="s">
         <v>15</v>
       </c>
@@ -1866,20 +1914,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26">
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1920,7 +1968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1964,7 +2012,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2008,7 +2056,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2052,7 +2100,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2096,7 +2144,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2188,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2184,7 +2232,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2228,7 +2276,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2272,7 +2320,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2291,7 +2339,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -2306,7 +2354,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -2321,7 +2369,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2339,7 +2387,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
@@ -2356,7 +2404,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2374,28 +2422,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA5840C-E570-41D3-A054-976C8C11FDEB}">
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DM37" sqref="DM37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="109.625" customWidth="1"/>
+    <col min="10" max="10" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21">
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>48</v>
@@ -2416,7 +2465,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21">
+    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -2441,7 +2490,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+    <row r="4" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
@@ -2466,8 +2515,11 @@
       <c r="I4" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+      <c r="J4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
@@ -2493,7 +2545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+    <row r="6" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
@@ -2519,9 +2571,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+    <row r="7" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="9">
         <v>50</v>
@@ -2544,10 +2596,13 @@
       <c r="I7" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+      <c r="J7" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="9">
         <v>50</v>
@@ -2568,10 +2623,10 @@
         <v>68</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>58</v>
       </c>
@@ -2592,7 +2647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="21">
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
@@ -2613,7 +2668,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="21">
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>63</v>
       </c>
@@ -2634,9 +2689,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="9">
         <v>100</v>
@@ -2660,9 +2715,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="9">
         <v>50</v>
@@ -2686,83 +2741,83 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="400" customHeight="1">
+    <row r="14" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="21">
+    <row r="15" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="21">
+    <row r="16" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="17" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="18" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="19" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="20" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="21" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="22" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="23" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="24" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="25" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="26" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="27" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="28" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="29" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="30" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="31" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:2" s="8" customFormat="1" ht="21">
+    <row r="32" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
     </row>
-    <row r="33" s="8" customFormat="1" ht="21"/>
+    <row r="33" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\detr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5D159-9F22-4826-85DD-27DF67C5F88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C92C869-AA3C-4AD7-8863-54C927A2A949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{62CF9DC0-3108-FB47-B69C-4FAD3B0A17CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>训练Class和State的loss，Class的loss要明显小于State的loss，State的loss没有明显的收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,18 @@
   </si>
   <si>
     <t>Best for class prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results_pretain_state_finetune_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta_query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,13 +1171,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1203,15 +1215,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2196352</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1253,13 +1265,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2199267</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1303,13 +1315,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2199267</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>8363414</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1353,15 +1365,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1403,13 +1415,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1453,13 +1465,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2422,402 +2434,494 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA5840C-E570-41D3-A054-976C8C11FDEB}">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DM37" sqref="DM37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="109.625" customWidth="1"/>
-    <col min="10" max="10" width="46.375" customWidth="1"/>
+    <col min="1" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
+    <col min="9" max="9" width="109.625" customWidth="1"/>
+    <col min="11" max="11" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="7" t="b">
+      <c r="F3" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
         <v>100</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="8" t="b">
+      <c r="F4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <v>100</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="8" t="b">
+      <c r="F5" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="8" t="b">
+      <c r="F6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
         <v>50</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="8" t="b">
+      <c r="F7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
         <v>50</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="8" t="b">
+      <c r="F8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>100</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="8" t="b">
+      <c r="F10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="B11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>100</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="8" t="b">
+      <c r="F11" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="s">
+      <c r="B12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="8" t="b">
+      <c r="F12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
         <v>100</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="8" t="b">
+      <c r="F13" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
         <v>50</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="8" t="b">
+      <c r="F14" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-    </row>
-    <row r="33" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
